--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1337354.65724076</v>
+        <v>1327614.215138251</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12379291.29065066</v>
+        <v>11672620.63342788</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668379.122709966</v>
+        <v>991617.4208840946</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10384312.35536517</v>
+        <v>10706616.82143367</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>224.3552211967891</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.56069129117054</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>301.1515712245906</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.748191257654</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>194.6929976615211</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.8704583749875</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>92.89868514158135</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>20.46222826690847</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>134.4937184394575</v>
+        <v>104.2614960893573</v>
       </c>
       <c r="T3" t="n">
-        <v>192.094573559387</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8096602887751</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>37.56464882457572</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.3033093885785</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.8195396533588</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7735897699331</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>98.12346640593505</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.7436588726952</v>
+        <v>48.60751682748877</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>94.2401475588522</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>33.8555903183376</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>51.14536351890982</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>20.29684812141221</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.453590005685</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>223.5780518383289</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>132.5496576545491</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>60.86538463674717</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>355.4695039789485</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>76.42353197724898</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>103.8263884981905</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>108.9198263223569</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.2145822172244</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>257.7334123000953</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.8592197823087</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>88.24236163673336</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>13.98845701719331</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>125.5384368576995</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>190.1512668832038</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7779414638102</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.9082278872684</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.7576914549238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>83.64531159073546</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>187.7199201254086</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>180.6462556333337</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2054247307896</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>285.9908289452614</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>233.2715658672525</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>39.74159651269557</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>117.0859349823495</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8420908016146</v>
+        <v>233.2715658672525</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>44.69180334097071</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.16210696178955</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>137.9792024346624</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>135.3135037226519</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>55.52079624060555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>151.3113851298087</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>63.16281301712621</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>4.974488840434237</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4036,10 +4036,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>255.2269336503894</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.96740990562</v>
+        <v>1317.789627703379</v>
       </c>
       <c r="C2" t="n">
-        <v>952.0048929652085</v>
+        <v>1317.789627703379</v>
       </c>
       <c r="D2" t="n">
-        <v>593.739194358458</v>
+        <v>1317.789627703379</v>
       </c>
       <c r="E2" t="n">
-        <v>593.739194358458</v>
+        <v>1317.789627703379</v>
       </c>
       <c r="F2" t="n">
-        <v>367.1177588061457</v>
+        <v>906.8037229137719</v>
       </c>
       <c r="G2" t="n">
-        <v>355.4402928554684</v>
+        <v>489.7159411501995</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>171.4928259227089</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J2" t="n">
-        <v>201.9572401231582</v>
+        <v>73.03410531620302</v>
       </c>
       <c r="K2" t="n">
-        <v>455.3105768266368</v>
+        <v>155.5972598907954</v>
       </c>
       <c r="L2" t="n">
-        <v>806.5195558997461</v>
+        <v>708.4105181369946</v>
       </c>
       <c r="M2" t="n">
-        <v>1228.976653288217</v>
+        <v>1340.128329120306</v>
       </c>
       <c r="N2" t="n">
-        <v>1662.883356556564</v>
+        <v>1967.435997180153</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.273891059915</v>
+        <v>2444.274320869865</v>
       </c>
       <c r="P2" t="n">
-        <v>2363.083040580435</v>
+        <v>2555.008646119391</v>
       </c>
       <c r="Q2" t="n">
-        <v>2543.058312831196</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.341155412626</v>
+        <v>2433.777728637815</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.341155412626</v>
+        <v>2218.977866905526</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.341155412626</v>
+        <v>2022.31827330803</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.341155412626</v>
+        <v>1691.255385964459</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.572500142512</v>
+        <v>1691.255385964459</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.106741881432</v>
+        <v>1317.789627703379</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.96740990562</v>
+        <v>1317.789627703379</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.1449978662017</v>
+        <v>965.2215397494255</v>
       </c>
       <c r="C3" t="n">
-        <v>756.6919685850747</v>
+        <v>790.7685104682985</v>
       </c>
       <c r="D3" t="n">
-        <v>607.7575589238235</v>
+        <v>641.8341008070472</v>
       </c>
       <c r="E3" t="n">
-        <v>448.520103918368</v>
+        <v>482.5966458015918</v>
       </c>
       <c r="F3" t="n">
-        <v>301.985545945253</v>
+        <v>336.0620878284767</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7527597078918</v>
+        <v>198.6206901876986</v>
       </c>
       <c r="H3" t="n">
-        <v>71.9157040093248</v>
+        <v>97.70471233250325</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J3" t="n">
-        <v>112.9471984690615</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5578546299113</v>
+        <v>381.2282596286296</v>
       </c>
       <c r="L3" t="n">
-        <v>785.3955811474782</v>
+        <v>885.5897994947481</v>
       </c>
       <c r="M3" t="n">
-        <v>1146.914371299518</v>
+        <v>1065.087135849353</v>
       </c>
       <c r="N3" t="n">
-        <v>1532.410133009896</v>
+        <v>1385.875532846959</v>
       </c>
       <c r="O3" t="n">
-        <v>1862.843647066045</v>
+        <v>1935.311541599682</v>
       </c>
       <c r="P3" t="n">
-        <v>2423.990748339555</v>
+        <v>2359.279310080519</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.428440646267</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2568.880866543173</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.487087552218</v>
+        <v>2463.566224028671</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.452164764959</v>
+        <v>2266.576928188759</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.361598816701</v>
+        <v>2038.438140699924</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.209490584958</v>
+        <v>1803.286032468182</v>
       </c>
       <c r="W3" t="n">
-        <v>1514.972133856756</v>
+        <v>1549.04867573998</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.120633651224</v>
+        <v>1341.197175534447</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.36033488627</v>
+        <v>1133.436876769493</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.785138974725</v>
+        <v>542.9819085226599</v>
       </c>
       <c r="C4" t="n">
-        <v>532.785138974725</v>
+        <v>374.045725594753</v>
       </c>
       <c r="D4" t="n">
-        <v>532.785138974725</v>
+        <v>223.9290861824173</v>
       </c>
       <c r="E4" t="n">
-        <v>384.8720453923319</v>
+        <v>223.9290861824173</v>
       </c>
       <c r="F4" t="n">
-        <v>237.9820978944215</v>
+        <v>223.9290861824173</v>
       </c>
       <c r="G4" t="n">
-        <v>200.0380081726279</v>
+        <v>223.9290861824173</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>69.67444308218234</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>69.67444308218234</v>
       </c>
       <c r="J4" t="n">
-        <v>76.30816618770034</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="K4" t="n">
-        <v>247.3285481680662</v>
+        <v>152.8477849184295</v>
       </c>
       <c r="L4" t="n">
-        <v>521.7021914491899</v>
+        <v>337.680779819248</v>
       </c>
       <c r="M4" t="n">
-        <v>821.379851360161</v>
+        <v>542.9503805384859</v>
       </c>
       <c r="N4" t="n">
-        <v>1119.366462752807</v>
+        <v>748.7737453745901</v>
       </c>
       <c r="O4" t="n">
-        <v>1378.58903339009</v>
+        <v>922.868640763189</v>
       </c>
       <c r="P4" t="n">
-        <v>1576.878042424292</v>
+        <v>1048.316217361805</v>
       </c>
       <c r="Q4" t="n">
-        <v>1630.727993997703</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="R4" t="n">
-        <v>1527.879974145825</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="S4" t="n">
-        <v>1527.879974145825</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="T4" t="n">
-        <v>1304.87634811559</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="U4" t="n">
-        <v>1304.87634811559</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="V4" t="n">
-        <v>1050.191859909703</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="W4" t="n">
-        <v>760.7746898727423</v>
+        <v>1051.734536782164</v>
       </c>
       <c r="X4" t="n">
-        <v>532.785138974725</v>
+        <v>823.7449858841471</v>
       </c>
       <c r="Y4" t="n">
-        <v>532.785138974725</v>
+        <v>724.6303733528996</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>2399.161149170367</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>2030.198632229955</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>1671.932933623205</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>1286.14468102496</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>875.1587762353529</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>458.7065149272275</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>125.8997233870219</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>608.5986938974683</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>846.2214751156578</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1142.292041673258</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1447.76714790884</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1722.883367225472</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2241.768415604341</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2554.2077176767</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665546</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>2448.259651016315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686811</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>85.9974213009385</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>201.9455071369546</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143497</v>
+        <v>585.1891840496851</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458215</v>
+        <v>794.7800573025141</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105042</v>
+        <v>1058.719588798</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1344.05345923133</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878149</v>
+        <v>1972.782107066749</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>2460.389208973995</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.9218676324038</v>
+        <v>370.8526776630624</v>
       </c>
       <c r="C7" t="n">
-        <v>199.9856847044969</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>54.03452733018363</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>413.9157199341292</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>662.9824862666685</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092684</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357422</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="R7" t="n">
-        <v>1584.784136722063</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="S7" t="n">
-        <v>1584.784136722063</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="T7" t="n">
-        <v>1361.805655916799</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="U7" t="n">
-        <v>1361.805655916799</v>
+        <v>1290.70044257181</v>
       </c>
       <c r="V7" t="n">
-        <v>1107.121167710912</v>
+        <v>1290.70044257181</v>
       </c>
       <c r="W7" t="n">
-        <v>817.7039976739512</v>
+        <v>1001.28327253485</v>
       </c>
       <c r="X7" t="n">
-        <v>589.7144467759339</v>
+        <v>773.2937216368322</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.9218676324038</v>
+        <v>552.501142493302</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1634.158487398107</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104777</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2364.156350142674</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>2011.38769487256</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312941</v>
+        <v>1637.92193661148</v>
       </c>
       <c r="Y8" t="n">
-        <v>1753.808578312941</v>
+        <v>1247.782604635669</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>965.564585834469</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1690.902827875742</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.0715125813132</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C10" t="n">
-        <v>185.1353296534063</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>185.1353296534063</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>185.1353296534063</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>185.1353296534063</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>825.1371474485136</v>
+        <v>1585.503483652114</v>
       </c>
       <c r="W10" t="n">
-        <v>535.7199774115529</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X10" t="n">
-        <v>535.7199774115529</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y10" t="n">
-        <v>535.7199774115529</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.038871968309</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C11" t="n">
-        <v>869.0763550278978</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D11" t="n">
-        <v>869.0763550278978</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E11" t="n">
-        <v>483.2881024296535</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F11" t="n">
-        <v>483.2881024296535</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5044,13 +5044,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5074,19 +5074,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539437</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269323</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.778044008243</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.638712032431</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
@@ -5132,28 +5132,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
         <v>66.51211643218343</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1319.136451345211</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.09808975843</v>
+        <v>1706.926808221064</v>
       </c>
       <c r="C14" t="n">
-        <v>1519.135572818019</v>
+        <v>1337.964291280652</v>
       </c>
       <c r="D14" t="n">
-        <v>1160.869874211268</v>
+        <v>979.6985926739019</v>
       </c>
       <c r="E14" t="n">
-        <v>775.0816216130238</v>
+        <v>593.9103400756576</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>182.92443528605</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>182.92443528605</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>72.90440869781069</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>72.90440869781069</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>283.8086186744526</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>650.6378763989637</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1142.623769725989</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1721.722309029376</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2314.805076506407</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2861.501054740249</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3293.592423045403</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3569.902299159337</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3645.220434890535</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3540.963281135762</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3540.963281135762</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>3540.963281135762</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>3209.900393792192</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.034709923658</v>
+        <v>2857.131738522077</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.034709923658</v>
+        <v>2483.665980260997</v>
       </c>
       <c r="Y14" t="n">
-        <v>2274.697929822552</v>
+        <v>2093.526648285186</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5487479280881</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0957186469611</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1613089857099</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9238539802544</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3892960071394</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.1678618835952</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>87.03416326063223</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>72.90440869781069</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>72.90440869781069</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>207.9108114111875</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>604.7564071095205</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1087.213367464248</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1596.848172879821</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2040.844659395468</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2377.857917002693</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.223158306792</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2561.702364236884</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.895862360419</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.823875609708</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.765348878587</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.613240646844</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.375883918643</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.52438371311</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.764084948156</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836216</v>
+        <v>538.5182102655378</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836216</v>
+        <v>538.5182102655378</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836216</v>
+        <v>388.4015708532021</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836216</v>
+        <v>240.488477270809</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836216</v>
+        <v>240.488477270809</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836216</v>
+        <v>72.90440869781069</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836216</v>
+        <v>72.90440869781069</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>72.90440869781069</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>126.2568441053347</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>343.768121414031</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>677.6341044603751</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1040.038095212223</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1399.259545498592</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1715.042401000107</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1961.728504826806</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2049.086096217842</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1964.595882489827</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1774.97980155507</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1592.508836268875</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1303.412447651915</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1048.727959446029</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>759.310789409068</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>759.310789409068</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>538.5182102655378</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1422.200456328343</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C17" t="n">
-        <v>1053.237939387932</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D17" t="n">
-        <v>694.9722407811812</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E17" t="n">
-        <v>694.9722407811812</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F17" t="n">
-        <v>694.9722407811812</v>
+        <v>742.4225746200302</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>328.4394675364367</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923659</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653545</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392465</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y17" t="n">
-        <v>1808.800296392465</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>914.0526986331905</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1042.179465010819</v>
+        <v>745.0885253246415</v>
       </c>
       <c r="C19" t="n">
-        <v>873.2432820829119</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D19" t="n">
-        <v>723.1266426705762</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E19" t="n">
-        <v>575.2135490881831</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>428.3236015902727</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088493</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V19" t="n">
-        <v>1672.610059882606</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W19" t="n">
-        <v>1672.610059882606</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X19" t="n">
-        <v>1444.620508984588</v>
+        <v>1147.529569298411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1223.827929841058</v>
+        <v>926.7369901548813</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1853.982617026598</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C20" t="n">
-        <v>1485.020100086186</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D20" t="n">
-        <v>1126.754401479436</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E20" t="n">
-        <v>1126.754401479436</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F20" t="n">
-        <v>715.768496689828</v>
+        <v>742.4225746200302</v>
       </c>
       <c r="G20" t="n">
-        <v>300.6960465348245</v>
+        <v>328.4394675364367</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608179</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>372.3074987251953</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W20" t="n">
-        <v>2630.721789066531</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X20" t="n">
-        <v>2630.721789066531</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y20" t="n">
-        <v>2240.582457090719</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1762.85312294759</v>
+        <v>743.5667998938108</v>
       </c>
       <c r="C22" t="n">
-        <v>1762.85312294759</v>
+        <v>574.6306169659039</v>
       </c>
       <c r="D22" t="n">
-        <v>1612.736483535254</v>
+        <v>529.4873812679537</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952861</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T22" t="n">
-        <v>3103.839206178697</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U22" t="n">
-        <v>2814.73633930434</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V22" t="n">
-        <v>2560.051851098453</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W22" t="n">
-        <v>2270.634681061493</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X22" t="n">
-        <v>2042.645130163475</v>
+        <v>964.3593790373409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1944.501587777829</v>
+        <v>743.5667998938108</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138411</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>916.2946447138411</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3007.624207651098</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>2838.688024723192</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>2688.571385310856</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>2540.658291728463</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2393.768344230552</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481338</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
@@ -7572,49 +7572,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,7 +7684,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67719019432195</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>309.7669680532854</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>197.6040395876926</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>123.3653084292339</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>62.34113178188799</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>64.97515849019342</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566545</v>
+        <v>299.8549597144492</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>27.26433768453205</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>334.4981936762044</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>148.3112548256375</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.6596003842949</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>183.0034476521931</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>31.47134533368938</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.7705167738784</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9742019373693</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.5045263559583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>143.7096185181285</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59472895491429</v>
+        <v>92.81645795727771</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>38.40030478167969</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>124.9308967081921</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>127.5052245859323</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>48.93987327667877</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>62.76567358570583</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.9236696772416</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>121.4225463903052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>43.04708356698217</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>13.3019692955605</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>134.8730892594354</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>83.27114962944296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>220.7351665486029</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>30.95754073885479</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>956669.6218659042</v>
+        <v>1002204.886914162</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>956239.4024951202</v>
+        <v>981586.5615520491</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>956239.4024951202</v>
+        <v>956024.0441122117</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>790392.7672832411</v>
+        <v>824126.3306219062</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>790392.7672832411</v>
+        <v>929181.1770338591</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>790392.767283241</v>
+        <v>929181.1770338591</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936306</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936306</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="F2" t="n">
-        <v>409196.5187651048</v>
+        <v>426796.6387678866</v>
       </c>
       <c r="G2" t="n">
-        <v>409196.5187651048</v>
+        <v>481607.8629828184</v>
       </c>
       <c r="H2" t="n">
-        <v>409196.5187651048</v>
+        <v>481607.8629828185</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="J2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140035</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="L2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1111638.452206123</v>
+        <v>788872.8219169304</v>
       </c>
       <c r="C3" t="n">
-        <v>2942.058452925963</v>
+        <v>142513.6350285908</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>162483.5179640547</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>175476.4059383953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>74434.38175580457</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>226080.4058547869</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>300174.5225695034</v>
+        <v>10818.91345744882</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>45829.42896872339</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>19570.56209679111</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>59883.63854303322</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132482.6553740432</v>
+        <v>191567.1355176183</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>163524.6914359728</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>130249.3556020765</v>
       </c>
       <c r="E4" t="n">
         <v>6720.683277029938</v>
       </c>
       <c r="F4" t="n">
-        <v>6720.683277029938</v>
+        <v>6762.030179668953</v>
       </c>
       <c r="G4" t="n">
-        <v>6720.683277029938</v>
+        <v>6890.891875482008</v>
       </c>
       <c r="H4" t="n">
-        <v>6720.683277029938</v>
+        <v>6890.891875482007</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707359</v>
@@ -26456,7 +26456,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92867.33895268591</v>
+        <v>85933.26903271282</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>89345.07489699082</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>80585.92248659978</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-844363.3846142824</v>
+        <v>-573748.1645486911</v>
       </c>
       <c r="C6" t="n">
-        <v>264835.5041941745</v>
+        <v>97241.66055701542</v>
       </c>
       <c r="D6" t="n">
-        <v>267777.5626471008</v>
+        <v>106411.098990929</v>
       </c>
       <c r="E6" t="n">
-        <v>146096.5151094909</v>
+        <v>149216.8996902253</v>
       </c>
       <c r="F6" t="n">
-        <v>328169.4949266815</v>
+        <v>262271.4533812014</v>
       </c>
       <c r="G6" t="n">
-        <v>328169.4949266816</v>
+        <v>148035.3867830548</v>
       </c>
       <c r="H6" t="n">
-        <v>328169.4949266815</v>
+        <v>374115.792637842</v>
       </c>
       <c r="I6" t="n">
-        <v>76093.48292388562</v>
+        <v>365101.7127815834</v>
       </c>
       <c r="J6" t="n">
-        <v>208662.8276834067</v>
+        <v>206506.6094129841</v>
       </c>
       <c r="K6" t="n">
-        <v>376268.0054933892</v>
+        <v>375920.6262390321</v>
       </c>
       <c r="L6" t="n">
-        <v>376268.0054933891</v>
+        <v>375920.6262390323</v>
       </c>
       <c r="M6" t="n">
-        <v>328715.7396999743</v>
+        <v>330091.1972703089</v>
       </c>
       <c r="N6" t="n">
-        <v>376268.0054933892</v>
+        <v>356350.0641422412</v>
       </c>
       <c r="O6" t="n">
-        <v>376268.0054933892</v>
+        <v>316036.987695999</v>
       </c>
       <c r="P6" t="n">
-        <v>376268.0054933892</v>
+        <v>375920.6262390323</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>930.8339982111719</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1154.980361296498</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>911.3051087226337</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>930.8339982111719</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>3.230893906367395</v>
+        <v>156.5048561595415</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>189.725434152238</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>150.0703099434535</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>65.2036607031996</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>203.0606874198879</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>278.1987997483754</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>183.9032638670462</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>79.90365332034081</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>248.8401816033728</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>341.3068326973557</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>183.9032638670462</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>79.90365332034081</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>248.8401816033726</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>183.9032638670462</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>79.90365332034081</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>248.8401816033728</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>182.5208245449223</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>66.21065252101411</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.7150422187267</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0462892099193</v>
+        <v>56.46178856077955</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4708875467877647</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>43.71062515663425</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>128.7477774223547</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.9718049914786</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>194.7639951751556</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2274719140439</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>120.4611869461597</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.99018279078541</v>
+        <v>334.1263248359918</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>50.4122089006638</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>265.9484126164068</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>264.2802516577956</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>104.174206631806</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>33.75694239025506</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>191.2722586870808</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.742046223964507</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>38.32323089117652</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>144.2652370493918</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>317.6014957012079</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>476.0023123616256</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>590.5229594882795</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>657.0705740237082</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>667.7026628575475</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>630.4926907180004</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>538.1109245638766</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>404.0988941681475</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>235.0613111161107</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>85.2718783285913</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>16.38080734540464</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2993636979171605</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.002171241435351</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>19.3367590949151</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>68.93440458450661</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>189.1612750515741</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3067482277426</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>434.7258215230573</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>507.3045290250886</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>520.7313703766442</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>476.3674707637872</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>382.3268925860189</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.5754026786599</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>124.3102460252581</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>37.18945266438029</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>8.070155135434591</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1317217921996942</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.678553111528343</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>14.92386311886109</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>50.47866993577963</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>118.6737049850538</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>195.017352412111</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>249.5550689630411</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>263.1208300189382</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>256.8644047850601</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>237.2558525276607</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>203.0133690524824</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>140.555933729887</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>75.47385172381072</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>29.25260286181665</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>7.171999658348371</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09155744244700061</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066884</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>383.5191561611354</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>475.7894263014917</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658661</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>507.9933824485874</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072702</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674097</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743141</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>55.54104253307748</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>350.2623325605096</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>408.7396212911955</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257138</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>308.0440649433283</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>205.91929960289</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969209</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993398</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>40.67109842777185</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>95.6164245685555</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932496</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965164</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.07376861867189581</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.643137130840188</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>47.55152814121709</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>179.0045442367165</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>394.0804600586478</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>590.624454807113</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>732.7218627750636</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>815.2942527256428</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>828.4865660986426</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>782.3163712538503</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>667.6889233362331</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>501.4065748380187</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>291.6644627951403</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>105.8054873690209</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>20.32533279025293</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.371450970467215</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.484297380901901</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>23.9930825997631</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>85.53392298280669</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>274.2115427252447</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>539.4085168488974</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>629.4642969065911</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>646.1243438162361</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>591.0775439551992</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>474.39183934082</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>317.1183814638988</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>154.244358438804</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>46.14473424613834</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>10.01346181161774</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1634406171645988</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.082751471190405</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>18.51755398931107</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>62.63401696998058</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>147.2505290131617</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>241.9778527437579</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>309.6483414531627</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>326.4807601612378</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>318.7177774049829</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>294.3874534006221</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>251.8993233883376</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>174.4020345557711</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>93.64807978643402</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>36.29667791156369</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.899029013268093</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.113604625701295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>212.3968468900522</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>152.2327813688436</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>255.912461316645</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>354.7565445182923</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
-        <v>426.7243407964355</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>438.2895992609565</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>400.3944792963136</v>
+        <v>481.6548724138506</v>
       </c>
       <c r="P2" t="n">
-        <v>306.877928808607</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>181.793204293698</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
-        <v>19.47577330197856</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.32364838490744</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>185.4653092533836</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>493.7754813308757</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>365.1704951030703</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>389.389658293311</v>
+        <v>324.0286838359659</v>
       </c>
       <c r="O3" t="n">
-        <v>333.7712263193428</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>566.8152538116258</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>115.5936285926384</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
-        <v>24.15241187261493</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.31452486838104</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>172.7478605862282</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>277.1450942233572</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>302.7047069807788</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>300.9965771642887</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>261.8409804417004</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>200.2919283173759</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.39389047819257</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>74.84835158000215</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>487.5747176873196</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>240.0230113315045</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>299.0611783410102</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>308.5607133692752</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>277.8951710269007</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>524.126311493807</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>315.5952546185443</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>36.14651360028967</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>151.6622745597322</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>387.1148251643742</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>211.7079527806354</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>266.6055873691772</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>288.2160307407381</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>635.0794422579988</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>492.5324261689352</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>130.912684007062</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>2.257244451882727</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000435</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>27.0850811794442</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391977</v>
+        <v>551.8516545275995</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>213.0345555319615</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>370.5346037621325</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>496.9554478050764</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>584.9480194983701</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>599.0735025020517</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>552.2181598321636</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>436.4559275809635</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>279.1008849635692</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>76.07892498100813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>136.3701037508857</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>400.8541370690232</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>487.3302629845728</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>514.7826317329028</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>448.4812995107548</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>340.4174319264898</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>177.1366073778773</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.564854474840075</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>53.89134889648889</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>219.7083609178751</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>337.2383667134789</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>366.0646371230784</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>362.8499497842115</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>318.9725813146618</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>249.1778826532311</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>88.23999130407675</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>81.05513480671893</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096303</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1327614.215138251</v>
+        <v>1334178.686057486</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11672620.63342788</v>
+        <v>12379291.29065066</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991617.4208840946</v>
+        <v>1668379.122709968</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10706616.82143367</v>
+        <v>10384312.35536517</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>373.8262438327652</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>11.56069129117054</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>66.21065252101403</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>194.6929976615211</v>
+        <v>251.0462892099193</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>135.3413459217753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>92.42779759479362</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>20.46222826690844</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>104.2614960893573</v>
+        <v>134.4937184394575</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>192.094573559387</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8096602887751</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3124262469304</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>147.3033093885785</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.606974781375826</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.7639951751556</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7735897699331</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>98.12346640593505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.60751682748877</v>
+        <v>75.49088380154248</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950442</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495114</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>94.2401475588522</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734244</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906504</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>33.8555903183376</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041457</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>20.29684812141221</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>168.8856887046242</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>223.5780518383289</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3222619078506</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394026</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.1392412509879</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>192.01765159098</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8084047615432</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>60.86538463674717</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.4695039789485</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>311.8705548744222</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>3.166281869766606</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>103.8263884981905</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>139.1071548763977</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>108.9198263223569</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.2145822172244</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.8592197823087</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>88.24236163673336</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>13.98845701719331</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>125.5384368576995</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>190.1512668832038</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7779414638102</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.9082278872684</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.64531159073546</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.7199201254086</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>180.6462556333337</v>
+        <v>52.3896864884365</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2054247307896</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2715658672525</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>39.74159651269557</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>18.26879610204006</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>376.4083266662158</v>
       </c>
       <c r="H20" t="n">
-        <v>233.2715658672525</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081966</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>44.69180334097071</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>12.20872790342588</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>151.3113851298087</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>4.974488840434237</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.789627703379</v>
+        <v>1251.459917212341</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.789627703379</v>
+        <v>1251.459917212341</v>
       </c>
       <c r="D2" t="n">
-        <v>1317.789627703379</v>
+        <v>893.1942186055905</v>
       </c>
       <c r="E2" t="n">
-        <v>1317.789627703379</v>
+        <v>507.4059660073463</v>
       </c>
       <c r="F2" t="n">
-        <v>906.8037229137719</v>
+        <v>129.8036995096037</v>
       </c>
       <c r="G2" t="n">
-        <v>489.7159411501995</v>
+        <v>118.1262335589264</v>
       </c>
       <c r="H2" t="n">
-        <v>171.4928259227089</v>
+        <v>118.1262335589264</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>73.03410531620302</v>
+        <v>186.4368218307796</v>
       </c>
       <c r="K2" t="n">
-        <v>155.5972598907954</v>
+        <v>439.7901585342584</v>
       </c>
       <c r="L2" t="n">
-        <v>708.4105181369946</v>
+        <v>790.999137607368</v>
       </c>
       <c r="M2" t="n">
-        <v>1340.128329120306</v>
+        <v>1213.456234995839</v>
       </c>
       <c r="N2" t="n">
-        <v>1967.435997180153</v>
+        <v>1647.362938264187</v>
       </c>
       <c r="O2" t="n">
-        <v>2444.274320869865</v>
+        <v>2043.753472767537</v>
       </c>
       <c r="P2" t="n">
-        <v>2555.008646119391</v>
+        <v>2347.562622288059</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140987</v>
+        <v>2543.058312831196</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2433.777728637815</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2218.977866905526</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2022.31827330803</v>
+        <v>2308.757218087106</v>
       </c>
       <c r="V2" t="n">
-        <v>1691.255385964459</v>
+        <v>1977.694330743535</v>
       </c>
       <c r="W2" t="n">
-        <v>1691.255385964459</v>
+        <v>1624.925675473421</v>
       </c>
       <c r="X2" t="n">
-        <v>1317.789627703379</v>
+        <v>1251.459917212341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1317.789627703379</v>
+        <v>1251.459917212341</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.2215397494255</v>
+        <v>931.1449978662017</v>
       </c>
       <c r="C3" t="n">
-        <v>790.7685104682985</v>
+        <v>756.6919685850747</v>
       </c>
       <c r="D3" t="n">
-        <v>641.8341008070472</v>
+        <v>607.7575589238235</v>
       </c>
       <c r="E3" t="n">
-        <v>482.5966458015918</v>
+        <v>448.520103918368</v>
       </c>
       <c r="F3" t="n">
-        <v>336.0620878284767</v>
+        <v>301.985545945253</v>
       </c>
       <c r="G3" t="n">
-        <v>198.6206901876986</v>
+        <v>165.2771157212375</v>
       </c>
       <c r="H3" t="n">
-        <v>97.70471233250325</v>
+        <v>71.91570400932477</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>51.79985532281973</v>
+        <v>237.7773234560663</v>
       </c>
       <c r="K3" t="n">
-        <v>381.2282596286296</v>
+        <v>683.208564259369</v>
       </c>
       <c r="L3" t="n">
-        <v>885.5897994947481</v>
+        <v>976.4182915851204</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.087135849353</v>
+        <v>1337.93708173716</v>
       </c>
       <c r="N3" t="n">
-        <v>1385.875532846959</v>
+        <v>1723.432843447538</v>
       </c>
       <c r="O3" t="n">
-        <v>1935.311541599682</v>
+        <v>2053.866357503688</v>
       </c>
       <c r="P3" t="n">
-        <v>2359.279310080519</v>
+        <v>2299.73531782366</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2568.880866543173</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.566224028671</v>
+        <v>2426.487087552218</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.576928188759</v>
+        <v>2232.452164764959</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.438140699924</v>
+        <v>2004.361598816701</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.286032468182</v>
+        <v>1769.209490584958</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.04867573998</v>
+        <v>1514.972133856756</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.197175534447</v>
+        <v>1307.120633651224</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.436876769493</v>
+        <v>1099.36033488627</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.9819085226599</v>
+        <v>546.6705557755915</v>
       </c>
       <c r="C4" t="n">
-        <v>374.045725594753</v>
+        <v>377.7343728476847</v>
       </c>
       <c r="D4" t="n">
-        <v>223.9290861824173</v>
+        <v>377.7343728476847</v>
       </c>
       <c r="E4" t="n">
-        <v>223.9290861824173</v>
+        <v>377.7343728476847</v>
       </c>
       <c r="F4" t="n">
-        <v>223.9290861824173</v>
+        <v>377.7343728476847</v>
       </c>
       <c r="G4" t="n">
-        <v>223.9290861824173</v>
+        <v>209.7420231033105</v>
       </c>
       <c r="H4" t="n">
-        <v>69.67444308218234</v>
+        <v>60.95080149868576</v>
       </c>
       <c r="I4" t="n">
-        <v>69.67444308218234</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>51.79985532281973</v>
+        <v>76.30816618770039</v>
       </c>
       <c r="K4" t="n">
-        <v>152.8477849184295</v>
+        <v>247.3285481680664</v>
       </c>
       <c r="L4" t="n">
-        <v>337.680779819248</v>
+        <v>521.7021914491902</v>
       </c>
       <c r="M4" t="n">
-        <v>542.9503805384859</v>
+        <v>821.3798513601614</v>
       </c>
       <c r="N4" t="n">
-        <v>748.7737453745901</v>
+        <v>1119.366462752807</v>
       </c>
       <c r="O4" t="n">
-        <v>922.868640763189</v>
+        <v>1378.589033390091</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.316217361805</v>
+        <v>1576.878042424293</v>
       </c>
       <c r="Q4" t="n">
-        <v>1051.734536782164</v>
+        <v>1630.727993997704</v>
       </c>
       <c r="R4" t="n">
-        <v>1051.734536782164</v>
+        <v>1630.727993997704</v>
       </c>
       <c r="S4" t="n">
-        <v>1051.734536782164</v>
+        <v>1433.996685739971</v>
       </c>
       <c r="T4" t="n">
-        <v>1051.734536782164</v>
+        <v>1210.993059709735</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.734536782164</v>
+        <v>1210.993059709735</v>
       </c>
       <c r="V4" t="n">
-        <v>1051.734536782164</v>
+        <v>956.3085715038486</v>
       </c>
       <c r="W4" t="n">
-        <v>1051.734536782164</v>
+        <v>956.3085715038486</v>
       </c>
       <c r="X4" t="n">
-        <v>823.7449858841471</v>
+        <v>728.3190206058313</v>
       </c>
       <c r="Y4" t="n">
-        <v>724.6303733528996</v>
+        <v>728.3190206058313</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2399.161149170367</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C5" t="n">
-        <v>2030.198632229955</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1671.932933623205</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>1286.14468102496</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>875.1587762353529</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>458.7065149272275</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>146.9919235640846</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>125.8997233870219</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>608.5986938974683</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>846.2214751156578</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1142.292041673258</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1447.76714790884</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>1722.883367225472</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2241.768415604341</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2554.2077176767</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2448.259651016315</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2448.259651016315</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2448.259651016315</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2448.259651016315</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2448.259651016315</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>2448.259651016315</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y5" t="n">
-        <v>2448.259651016315</v>
+        <v>2437.640120926626</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>949.8902083093635</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>775.4371790282365</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>626.5027693669854</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>467.2653143615298</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>320.7307563884149</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>183.6293921686811</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>85.9974213009385</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>201.9455071369546</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>585.1891840496851</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>794.7800573025141</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.719588798</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.05345923133</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1972.782107066749</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2460.389208973995</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>2589.992766140987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2589.992766140986</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2446.841948662051</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2251.223226128891</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2023.106809259863</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1787.95470102812</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1533.717344299918</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1325.865844094385</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1118.105545329432</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8526776630624</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>201.9164947351555</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281973</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281973</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>54.03452733018363</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>187.5436166159861</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>413.9157199341292</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>662.9824862666685</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>911.5616180092684</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1125.148384357422</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1284.388078993466</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1311.202309361115</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1311.202309361115</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1311.202309361115</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1311.202309361115</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1290.70044257181</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.70044257181</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1001.28327253485</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>773.2937216368322</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.501142493302</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1247.782604635669</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.782604635669</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D8" t="n">
-        <v>1247.782604635669</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="E8" t="n">
-        <v>1247.782604635669</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>703.9167907599715</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>288.2120404842603</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104777</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2364.156350142674</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2011.38769487256</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1637.92193661148</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1247.782604635669</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3045644835107</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8515352023837</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9171255411325</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4559591202886</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421436</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>965.564585834469</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875742</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.061870084021</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.567687002215</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610463172942</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.52116543401</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.369057202267</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131700474065</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.280200268533</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519901503579</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.6557187433658</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281973</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.602671897099</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1585.503483652114</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.086313615153</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.096762717136</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3041835736055</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1519.109083729354</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="C11" t="n">
-        <v>1150.146566788942</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D11" t="n">
-        <v>791.8808681821918</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>406.0926155839475</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
         <v>406.0926155839475</v>
@@ -5038,55 +5038,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734407</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758595</v>
+        <v>1589.466613035921</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
@@ -5132,28 +5132,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780106</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5232,19 +5232,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1319.136451345211</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.71928130825</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1029.71928130825</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.71928130825</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1706.926808221064</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C14" t="n">
-        <v>1337.964291280652</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D14" t="n">
-        <v>979.6985926739019</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E14" t="n">
-        <v>593.9103400756576</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F14" t="n">
-        <v>182.92443528605</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
-        <v>182.92443528605</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>72.90440869781069</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>72.90440869781069</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>283.8086186744526</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>650.6378763989637</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1142.623769725989</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1721.722309029376</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2314.805076506407</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2861.501054740249</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3293.592423045403</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3569.902299159337</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3645.220434890535</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3540.963281135762</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3540.963281135762</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3540.963281135762</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>3209.900393792192</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W14" t="n">
-        <v>2857.131738522077</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X14" t="n">
-        <v>2483.665980260997</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y14" t="n">
-        <v>2093.526648285186</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5487479280881</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0957186469611</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1613089857099</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9238539802544</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3892960071394</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.1678618835952</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>87.03416326063223</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>72.90440869781069</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>72.90440869781069</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>207.9108114111875</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>604.7564071095205</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1087.213367464248</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1596.848172879821</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2040.844659395468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2377.857917002693</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.223158306792</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2561.702364236884</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.895862360419</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.823875609708</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.765348878587</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.613240646844</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.375883918643</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.52438371311</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.764084948156</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.5182102655378</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C16" t="n">
-        <v>538.5182102655378</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D16" t="n">
-        <v>388.4015708532021</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E16" t="n">
-        <v>240.488477270809</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>240.488477270809</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>72.90440869781069</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>72.90440869781069</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>72.90440869781069</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>126.2568441053347</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>343.768121414031</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>677.6341044603751</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1040.038095212223</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.259545498592</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1715.042401000107</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1961.728504826806</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2049.086096217842</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1964.595882489827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1774.97980155507</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1592.508836268875</v>
+        <v>1874.375672847648</v>
       </c>
       <c r="U16" t="n">
-        <v>1303.412447651915</v>
+        <v>1585.272805973291</v>
       </c>
       <c r="V16" t="n">
-        <v>1048.727959446029</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="W16" t="n">
-        <v>759.310789409068</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X16" t="n">
-        <v>759.310789409068</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y16" t="n">
-        <v>538.5182102655378</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555044</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614632</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.196732007882</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E17" t="n">
-        <v>1153.408479409638</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F17" t="n">
-        <v>742.4225746200302</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G17" t="n">
-        <v>328.4394675364367</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251935</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128754</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333933</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.91518802128</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750193</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469743</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856058</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594978</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619166</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>423.3203657894393</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>914.0526986331905</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1506.071052885318</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1586.31563634397</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2133.192111344164</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>745.0885253246415</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C19" t="n">
-        <v>704.9454985441409</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D19" t="n">
-        <v>554.8288591318052</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E19" t="n">
-        <v>406.9157655494121</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0258180515017</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G19" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410168</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>2208.69699212455</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1919.620778439276</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.936290233389</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1375.519120196429</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>1147.529569298411</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>926.7369901548813</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555044</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="C20" t="n">
-        <v>1897.462430614632</v>
+        <v>1899.346003793994</v>
       </c>
       <c r="D20" t="n">
-        <v>1539.196732007882</v>
+        <v>1541.080305187244</v>
       </c>
       <c r="E20" t="n">
-        <v>1153.408479409638</v>
+        <v>1155.292052588999</v>
       </c>
       <c r="F20" t="n">
-        <v>742.4225746200302</v>
+        <v>744.3061477993917</v>
       </c>
       <c r="G20" t="n">
-        <v>328.4394675364367</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608179</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251953</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128774</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018652</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957689</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874795</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333934</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779264</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412851</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>1061.700680385036</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1653.719034637164</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>2275.8149980365</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2552.77562977024</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>743.5667998938108</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="C22" t="n">
-        <v>574.6306169659039</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D22" t="n">
-        <v>529.4873812679537</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E22" t="n">
-        <v>381.5742876855605</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F22" t="n">
-        <v>234.6843401876502</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G22" t="n">
-        <v>234.6843401876502</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>431.422473086198</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>819.184291169332</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856732</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410167</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410167</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149097</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.526801863479</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178206</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.766099972319</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.348929935358</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X22" t="n">
-        <v>964.3593790373409</v>
+        <v>770.1609019110437</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.5667998938108</v>
+        <v>549.3683227675135</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7168,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7396,52 +7396,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602299</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396412</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359451</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7678,7 +7678,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>309.7669680532854</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.67719019431973</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>123.3653084292339</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>149.662947747256</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>21.36925793870583</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>62.34113178188799</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.97515849019342</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144492</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.26433768453205</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>74.36738378163142</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>143.2676807768026</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>148.3112548256375</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>215.5758867442853</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.6596003842949</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>183.0034476521931</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.47134533368938</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.7705167738784</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9742019373693</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.7096185181285</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81645795727771</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>38.40030478167969</v>
+        <v>167.1592627877327</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H17" t="n">
-        <v>50.29152613729178</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>127.5052245859323</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147.7570121569882</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>34.51339898723768</v>
       </c>
       <c r="H20" t="n">
-        <v>50.29152613729178</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>103.9236696772416</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440905</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>213.5009274856113</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>134.8730892594354</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
         <v>138.4949402405077</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>38.59775584152679</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>220.7351665486029</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1002204.886914162</v>
+        <v>956669.6218659042</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>981586.5615520491</v>
+        <v>956239.4024951202</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>956024.0441122117</v>
+        <v>956239.4024951202</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>790392.767283241</v>
+        <v>790392.7672832409</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>824126.3306219062</v>
+        <v>790392.767283241</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>929181.1770338591</v>
+        <v>790392.7672832411</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>929181.1770338591</v>
+        <v>790392.7672832411</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="F2" t="n">
         <v>409196.5187651049</v>
       </c>
-      <c r="F2" t="n">
-        <v>426796.6387678866</v>
-      </c>
       <c r="G2" t="n">
-        <v>481607.8629828184</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="H2" t="n">
-        <v>481607.8629828185</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="J2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="N2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="N2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>788872.8219169304</v>
+        <v>1111638.452206124</v>
       </c>
       <c r="C3" t="n">
-        <v>142513.6350285908</v>
+        <v>2942.058452925389</v>
       </c>
       <c r="D3" t="n">
-        <v>162483.5179640547</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>175476.4059383953</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
-        <v>74434.38175580457</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>226080.4058547869</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744882</v>
+        <v>300174.5225695034</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45829.42896872339</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
-        <v>19570.56209679111</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>59883.63854303322</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191567.1355176183</v>
+        <v>132482.6553740431</v>
       </c>
       <c r="C4" t="n">
-        <v>163524.6914359728</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>130249.3556020765</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6720.683277029938</v>
       </c>
       <c r="F4" t="n">
-        <v>6762.030179668953</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="G4" t="n">
-        <v>6890.891875482008</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="H4" t="n">
-        <v>6890.891875482007</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
@@ -26459,7 +26459,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707323</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85933.26903271282</v>
+        <v>92867.33895268591</v>
       </c>
       <c r="C5" t="n">
-        <v>89345.07489699082</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>80585.92248659978</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-573748.1645486911</v>
+        <v>-844363.3846142828</v>
       </c>
       <c r="C6" t="n">
-        <v>97241.66055701542</v>
+        <v>264835.504194175</v>
       </c>
       <c r="D6" t="n">
-        <v>106411.098990929</v>
+        <v>267777.5626471002</v>
       </c>
       <c r="E6" t="n">
-        <v>149216.8996902253</v>
+        <v>145748.8961796849</v>
       </c>
       <c r="F6" t="n">
-        <v>262271.4533812014</v>
+        <v>327821.8759968755</v>
       </c>
       <c r="G6" t="n">
-        <v>148035.3867830548</v>
+        <v>327821.8759968755</v>
       </c>
       <c r="H6" t="n">
-        <v>374115.792637842</v>
+        <v>327821.8759968755</v>
       </c>
       <c r="I6" t="n">
-        <v>365101.7127815834</v>
+        <v>76058.7449984501</v>
       </c>
       <c r="J6" t="n">
-        <v>206506.6094129841</v>
+        <v>208628.0897579708</v>
       </c>
       <c r="K6" t="n">
-        <v>375920.6262390321</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="L6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679535</v>
       </c>
       <c r="M6" t="n">
-        <v>330091.1972703089</v>
+        <v>328681.0017745386</v>
       </c>
       <c r="N6" t="n">
-        <v>356350.0641422412</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="O6" t="n">
-        <v>316036.987695999</v>
+        <v>376233.2675679535</v>
       </c>
       <c r="P6" t="n">
-        <v>375920.6262390323</v>
+        <v>376233.2675679533</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>930.8339982111723</v>
       </c>
       <c r="C3" t="n">
-        <v>749.9809564976066</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1154.980361296498</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716385</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352466</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352466</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>911.3051087226337</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>930.8339982111723</v>
       </c>
       <c r="C3" t="n">
-        <v>156.5048561595415</v>
+        <v>3.230893906366765</v>
       </c>
       <c r="D3" t="n">
-        <v>189.725434152238</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0703099434535</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
-        <v>65.2036607031996</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>203.0606874198879</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352466</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>183.9032638670462</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
-        <v>79.90365332034081</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>248.8401816033728</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>183.9032638670462</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
-        <v>79.90365332034081</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>248.8401816033726</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>183.9032638670462</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
-        <v>79.90365332034081</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>248.8401816033728</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33.04980190894628</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.1515712245906</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.748191257654</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.7150422187267</v>
       </c>
       <c r="U2" t="n">
-        <v>56.46178856077955</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.4708875467877363</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>43.71062515663425</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>95.36483021010281</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>101.8195396533587</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>286.2274719140439</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>120.4611869461597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>334.1263248359918</v>
+        <v>307.2429578619381</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639206</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994864</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519701</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713016</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>265.9484126164068</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>132.1328638577812</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>104.174206631806</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>191.2722586870808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.115210091221213e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38583356919825</v>
+        <v>3.742046223964509</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055158</v>
+        <v>38.32323089117654</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651562</v>
+        <v>144.2652370493919</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>317.601495701208</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>476.0023123616258</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712531</v>
+        <v>590.5229594882798</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074825</v>
+        <v>657.0705740237086</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>667.7026628575478</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822519</v>
+        <v>630.4926907180006</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426701</v>
+        <v>538.1109245638768</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457577</v>
+        <v>404.0988941681476</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>235.0613111161108</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810517</v>
+        <v>85.27187832859134</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>16.38080734540465</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2993636979171607</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>2.002171241435352</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>19.33675909491511</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182841</v>
+        <v>68.93440458450664</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>189.1612750515742</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070429</v>
+        <v>323.3067482277428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>434.7258215230574</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842454</v>
+        <v>507.3045290250889</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>520.7313703766445</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>476.3674707637874</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671574</v>
+        <v>382.3268925860191</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>255.57540267866</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080804</v>
+        <v>124.3102460252581</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>37.1894526643803</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308317</v>
+        <v>8.070155135434595</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1317217921996943</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.678553111528343</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207016</v>
+        <v>14.9238631188611</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784131</v>
+        <v>50.47866993577965</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490379</v>
+        <v>118.6737049850539</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>195.0173524121111</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889954</v>
+        <v>249.5550689630412</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>263.1208300189384</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>256.8644047850602</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>237.2558525276608</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>203.0133690524825</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104783</v>
+        <v>140.555933729887</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>75.47385172381077</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>29.25260286181667</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522795</v>
+        <v>7.171999658348374</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.09155744244700065</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.014998820090879</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>30.87735666625572</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115537</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>255.8942561066884</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>383.5191561611354</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>475.7894263014917</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>529.4074115682829</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>537.9737769658661</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>507.9933824485874</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>433.5605990775938</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.5859538330891</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>189.3909196325338</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>68.70428561282097</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>13.19815733494783</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2411999056072702</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.613166585674097</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>15.57979307743141</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307748</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>152.4088658859901</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>260.4910271261546</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>350.2623325605096</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>408.7396212911955</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>419.5577428240715</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.8133674257138</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>308.0440649433283</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.91929960289</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526427</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96386179969209</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993398</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1061293806364538</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.352424675651422</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>12.02428484351901</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>40.67109842777185</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>95.6164245685555</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1271577711379</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>201.0686649600305</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>211.9987152932496</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>206.9578596840036</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>191.1590805184392</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>163.5696171351501</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.2471244311386</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519936</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567068</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965164</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07376861867189581</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>145.6403241227262</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.643137130840188</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>47.55152814121709</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>179.0045442367165</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>394.0804600586478</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>590.624454807113</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>732.7218627750636</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>815.2942527256428</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>828.4865660986426</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>782.3163712538503</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>667.6889233362331</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>501.4065748380187</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>291.6644627951403</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>105.8054873690209</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>20.32533279025293</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.371450970467215</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.484297380901901</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>23.9930825997631</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>85.53392298280669</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>274.2115427252447</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>539.4085168488974</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>629.4642969065911</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>646.1243438162361</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>591.0775439551992</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>474.39183934082</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>317.1183814638988</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>154.244358438804</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>46.14473424613834</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>10.01346181161774</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1634406171645988</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.082751471190405</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>18.51755398931107</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>62.63401696998058</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>147.2505290131617</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>241.9778527437579</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>309.6483414531627</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>326.4807601612378</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>318.7177774049829</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>294.3874534006221</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>251.8993233883376</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>174.4020345557711</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>93.64807978643402</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>36.29667791156369</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.899029013268093</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.113604625701295</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>212.3968468900522</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377424</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122281</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830429</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364261</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293306</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229606</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>919.857844208695</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687522</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148605</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540904</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735817</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848223</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745723</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>740.13237155043</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927636</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169088</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862159</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291842</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284924</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273332</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900885</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416873</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282423</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851327</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>136.5555911745217</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>255.9124613166452</v>
       </c>
       <c r="L2" t="n">
-        <v>558.3972305517163</v>
+        <v>354.7565445182925</v>
       </c>
       <c r="M2" t="n">
-        <v>638.0987989730422</v>
+        <v>426.7243407964359</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>438.2895992609569</v>
       </c>
       <c r="O2" t="n">
-        <v>481.6548724138506</v>
+        <v>400.3944792963139</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>306.8779288086072</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>197.4703944880179</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>19.47577330197868</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>188.4146837253164</v>
       </c>
       <c r="K3" t="n">
-        <v>332.7559639452625</v>
+        <v>449.9305462659624</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>296.1714417431833</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622271</v>
+        <v>365.1704951030706</v>
       </c>
       <c r="N3" t="n">
-        <v>324.0286838359659</v>
+        <v>389.3896582933112</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>333.771226319343</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>248.3524851716888</v>
       </c>
       <c r="Q3" t="n">
-        <v>233.0438950105733</v>
+        <v>265.2565763398945</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.3145248683811</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>172.7478605862283</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>277.1450942233573</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>302.704706980779</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>300.9965771642889</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>261.8409804417005</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>200.2919283173759</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353443</v>
+        <v>54.39389047819263</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.84835158000215</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>487.5747176873196</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0230113315045</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0611783410102</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>308.5607133692752</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>277.8951710269007</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>524.126311493807</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>315.5952546185443</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>36.14651360028967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597322</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>387.1148251643742</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>211.7079527806354</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691772</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407381</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>635.0794422579988</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>492.5324261689352</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.912684007062</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.257244451882727</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>134.857665945255</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>228.6586902203466</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>251.5825922550902</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>251.0900320632322</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>215.7442084324789</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>160.8481764000435</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.0850811794442</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>436.6197581489553</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545275995</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>213.0345555319615</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>370.5346037621325</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>496.9554478050764</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>584.9480194983701</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>599.0735025020517</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>552.2181598321636</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>436.4559275809635</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>279.1008849635692</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>76.07892498100813</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>136.3701037508857</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>400.8541370690232</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>487.3302629845728</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>514.7826317329028</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>448.4812995107548</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>340.4174319264898</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.1366073778773</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
-        <v>8.564854474840075</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.89134889648889</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>219.7083609178751</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>337.2383667134789</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>366.0646371230784</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>362.8499497842115</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>318.9725813146618</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>249.1778826532311</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.23999130407675</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>81.05513480671893</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380623</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664388</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020579</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263696</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870083</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134826</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.254733440411</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>127.357360784584</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.139375506915</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104633</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946981</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094304</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>279.7582138724644</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066046</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642056</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243779</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209159</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37940,7 +37940,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096303</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
